--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA59471-6BAA-44C7-A437-DFC782C102D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B45633-A9CB-4A6B-A846-1A5A03A37E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="186">
   <si>
     <t>level_row</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>Total Investment per smallhoders</t>
+  </si>
+  <si>
+    <t>k KSH</t>
+  </si>
+  <si>
+    <t>Education Investment</t>
+  </si>
+  <si>
+    <t>Equipment Investment</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1064,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1091,8 @@
         <v>82</v>
       </c>
       <c r="C2" s="5">
-        <v>150000</v>
+        <f>main!C17</f>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,7 +1103,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <v>8400</v>
+        <f>main!C18</f>
+        <v>52.000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1207,33 +1218,61 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>0.08</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"commodity,activities"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 B2:B5" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1246,13 +1285,13 @@
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3 E2</xm:sqref>
+          <xm:sqref>C3:C5 E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3 C2</xm:sqref>
+          <xm:sqref>E3:E5 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1265,7 +1304,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4E432-101C-4C51-BEA6-C2884442407F}">
-  <dimension ref="B3:C15"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,75 +2071,116 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="2">
         <f>C4*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="2">
-        <f>C8*C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C11" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f>C12*C11</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <f>(1-C12)*C11</f>
+        <v>0.20800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C14*C7*C8/1000</f>
+        <v>13.000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C15*C7*C8/1000</f>
+        <v>52.000000000000007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B45633-A9CB-4A6B-A846-1A5A03A37E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E285EA0-DD28-40A2-99C3-3F9BB359BF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="195">
   <si>
     <t>level_row</t>
   </si>
@@ -562,24 +562,6 @@
     <t>Petroleum</t>
   </si>
   <si>
-    <t>coverage_ratio</t>
-  </si>
-  <si>
-    <t>number of forstry trees</t>
-  </si>
-  <si>
-    <t>education / total ratio</t>
-  </si>
-  <si>
-    <t>education ratio</t>
-  </si>
-  <si>
-    <t>equipment ration</t>
-  </si>
-  <si>
-    <t>numer of smallholders to be coverd</t>
-  </si>
-  <si>
     <t>Total smallholders</t>
   </si>
   <si>
@@ -589,20 +571,69 @@
     <t>Total Investment per smallhoders</t>
   </si>
   <si>
-    <t>k KSH</t>
-  </si>
-  <si>
     <t>Education Investment</t>
   </si>
   <si>
     <t>Equipment Investment</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Education / total ratio</t>
+  </si>
+  <si>
+    <t>to the model</t>
+  </si>
+  <si>
+    <t>k Ksh</t>
+  </si>
+  <si>
+    <t>M Ksh</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Reference matrix</t>
+  </si>
+  <si>
+    <t>Agroforestry coffee cultivation in combination with mulching, trenches and organic composting in Uganda, FAO (2017)</t>
+  </si>
+  <si>
+    <t>Country Coffee Profile: Kenya, International Coffee Organization (2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +645,50 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,10 +723,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -677,9 +754,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,16 +1096,16 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1037,16 +1136,16 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1063,19 +1162,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1091,11 +1190,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="5">
-        <f>main!C17</f>
+        <f>main!C6</f>
         <v>13.000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1103,20 +1202,20 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>main!C18</f>
+        <f>main!C7</f>
         <v>52.000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1140,22 +1239,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1198,7 +1297,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1221,7 +1320,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1244,7 +1343,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1307,17 +1406,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1354,16 +1453,16 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1401,18 +1500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1547,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1558,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1602,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1536,7 +1635,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1646,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1602,7 +1701,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1723,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1734,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1679,7 +1778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1690,7 +1789,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1800,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1811,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1723,7 +1822,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1734,7 +1833,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1745,7 +1844,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1855,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1866,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1877,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1899,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1811,7 +1910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1822,7 +1921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1830,7 +1929,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1838,7 +1937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1846,7 +1945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1854,7 +1953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1862,7 +1961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1870,7 +1969,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1878,7 +1977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1886,7 +1985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1894,7 +1993,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1902,7 +2001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +2009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1918,7 +2017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1926,7 +2025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1934,7 +2033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1942,7 +2041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1950,7 +2049,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1958,7 +2057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1966,87 +2065,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2058,129 +2157,144 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4E432-101C-4C51-BEA6-C2884442407F}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="2">
+        <v>174</v>
+      </c>
+      <c r="C3" s="15">
         <v>250000</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="2">
-        <f>C4*C3</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="D3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="18">
         <v>0.26</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="D4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="2">
-        <f>C12*C11</f>
-        <v>5.2000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C6" s="20">
+        <f>C5*C4*C3*C2/1000</f>
+        <v>13.000000000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="2">
-        <f>(1-C12)*C11</f>
-        <v>0.20800000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2">
-        <f>C14*C7*C8/1000</f>
-        <v>13.000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="5">
-        <f>C15*C7*C8/1000</f>
+      <c r="C7" s="20">
+        <f>(1-C5)*C4*C3*C2/1000</f>
         <v>52.000000000000007</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E285EA0-DD28-40A2-99C3-3F9BB359BF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
   <si>
     <t>level_row</t>
   </si>
@@ -556,21 +555,12 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Petroleum</t>
   </si>
   <si>
-    <t>Total smallholders</t>
-  </si>
-  <si>
     <t>Percentage of the smallholders to be covered</t>
   </si>
   <si>
-    <t>Total Investment per smallhoders</t>
-  </si>
-  <si>
     <t>Education Investment</t>
   </si>
   <si>
@@ -586,54 +576,120 @@
     <t>Legenda</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Assumption</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
     <t>Calculated</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Education / total ratio</t>
-  </si>
-  <si>
-    <t>to the model</t>
-  </si>
-  <si>
-    <t>k Ksh</t>
-  </si>
-  <si>
-    <t>M Ksh</t>
+    <t>Reference matrix</t>
+  </si>
+  <si>
+    <t>Agroforestry coffee cultivation in combination with mulching, trenches and organic composting in Uganda, FAO (2017)</t>
+  </si>
+  <si>
+    <t>Country Coffee Profile: Kenya, International Coffee Organization (2019)</t>
+  </si>
+  <si>
+    <t>Fraction of shading trees to the coffee plants based on shading level</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Number of smallholders</t>
+  </si>
+  <si>
+    <t>Required investment per smallholder</t>
+  </si>
+  <si>
+    <t>Number of coffee plants per smallholder</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Total required investment</t>
+  </si>
+  <si>
+    <t>total required investment for forestry</t>
+  </si>
+  <si>
+    <t>Forestry to total ratio</t>
+  </si>
+  <si>
+    <t>Additional income due to by products (fruits)</t>
+  </si>
+  <si>
+    <t>Additional income due to firewood and timber (wood &amp; paper)</t>
+  </si>
+  <si>
+    <t>Optimum shading level</t>
+  </si>
+  <si>
+    <t>Increase in productivity based on optimum shading level</t>
+  </si>
+  <si>
+    <t>Modeled</t>
+  </si>
+  <si>
+    <t>kSh</t>
+  </si>
+  <si>
+    <t>Cost of purchasing a shading plant</t>
+  </si>
+  <si>
+    <t>Cost of planting a shading plant</t>
+  </si>
+  <si>
+    <t>MSh</t>
+  </si>
+  <si>
+    <t>Exploring adaptation strategies of coffee production to climate change using a process_based model</t>
+  </si>
+  <si>
+    <t>https://www.perfectdailygrind.com/2015/06/uncovered-how-many-dollars-does-it-cost-a-farmer-to-plant-a-basic-plot-of-coffee/</t>
+  </si>
+  <si>
+    <t>Increase in the N content of soil (min)</t>
+  </si>
+  <si>
+    <t>Increase in the olsen p content of soil (min)</t>
+  </si>
+  <si>
+    <t>Reduction in the Nitorgen Fertilizer</t>
+  </si>
+  <si>
+    <t>Reduction in Phosphorus fertilizer</t>
+  </si>
+  <si>
+    <t>Shade trees have higher impact on soil nutrient availability and food web in organic than conventional coffee agroforestry</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Reference matrix</t>
-  </si>
-  <si>
-    <t>Agroforestry coffee cultivation in combination with mulching, trenches and organic composting in Uganda, FAO (2017)</t>
-  </si>
-  <si>
-    <t>Country Coffee Profile: Kenya, International Coffee Organization (2019)</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Share of coffee to all products</t>
+  </si>
+  <si>
+    <t>Reduction in the Nitorgen Fertilizer weighted</t>
+  </si>
+  <si>
+    <t>Reduction in Phosphorus fertilizer weighted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0;\-;\-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +708,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,13 +737,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,6 +790,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -723,12 +824,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -754,29 +856,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1089,23 +1228,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,12 +1258,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1136,21 +1275,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1159,22 +1298,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1190,11 +1329,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="5">
-        <f>main!C6</f>
-        <v>13.000000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f>main!C20</f>
+        <v>29.099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1202,20 +1341,20 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>main!C7</f>
-        <v>52.000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f>main!C21</f>
+        <v>50.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1223,7 +1362,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1236,25 +1375,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1294,10 +1433,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
+        <f>-main!C22</f>
         <v>-0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1317,10 +1457,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f>main!C23</f>
+        <v>-3.6433199999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1340,38 +1481,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-0.1</v>
+        <f>main!C24</f>
+        <v>-3.6433199999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 B2:B5" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 B2:B4">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1380,17 +1499,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C5 E2</xm:sqref>
+          <xm:sqref>C3:C4 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E5 C2</xm:sqref>
+          <xm:sqref>E3:E4 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1399,24 +1518,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1453,24 +1572,24 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1478,13 +1597,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1497,21 +1616,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.89453125" customWidth="1"/>
+    <col min="3" max="3" width="47.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1521,11 +1640,9 @@
       <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1653,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1664,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1697,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1591,7 +1708,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1719,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1752,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1774,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1668,7 +1785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1795,12 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1690,7 +1811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1701,7 +1822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1712,7 +1833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1723,7 +1844,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1855,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1866,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1756,7 +1877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1767,7 +1888,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1910,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1921,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1811,7 +1932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1822,7 +1943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1833,7 +1954,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1965,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1855,7 +1976,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +1987,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1877,7 +1998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1888,7 +2009,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +2020,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1910,7 +2031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1921,7 +2042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1929,7 +2050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +2058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +2066,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1953,7 +2074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1961,7 +2082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1969,7 +2090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1977,7 +2098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1985,7 +2106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1993,7 +2114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2001,7 +2122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2009,7 +2130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2017,7 +2138,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2025,7 +2146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2033,7 +2154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2041,7 +2162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2049,7 +2170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2057,7 +2178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2065,87 +2186,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2156,147 +2277,386 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4E432-101C-4C51-BEA6-C2884442407F}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.62890625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31"/>
+      <c r="B3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="31"/>
+      <c r="B5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="24">
+        <v>30</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="31"/>
+      <c r="B6" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="31"/>
+      <c r="B7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="31"/>
+      <c r="B8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="31"/>
+      <c r="B9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="31"/>
+      <c r="B10" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="31"/>
+      <c r="B11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="25">
+        <v>300000</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="31"/>
+      <c r="B12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="25">
+        <v>9.1082999999999997E-2</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33"/>
+      <c r="B14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33"/>
+      <c r="B15" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="22">
+        <v>-0.4</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33"/>
+      <c r="B16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="22">
+        <v>-0.4</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="B17" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="27">
+        <f>C11*C4/1000</f>
+        <v>79.5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="30"/>
+      <c r="B18" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="27">
+        <f>C3*C5*C11*C6/1000</f>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="30"/>
+      <c r="B19" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C19" s="27">
+        <f>C18/C17</f>
+        <v>0.63396226415094348</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="28">
+        <f>(1-C19)*C17</f>
+        <v>29.099999999999994</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32"/>
+      <c r="B21" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="15">
-        <v>250000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="20">
-        <f>C5*C4*C3*C2/1000</f>
-        <v>13.000000000000002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="20">
-        <f>(1-C5)*C4*C3*C2/1000</f>
-        <v>52.000000000000007</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+      <c r="C21" s="28">
+        <f>C19*C17</f>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="32"/>
+      <c r="B22" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.13</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32"/>
+      <c r="B23" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="35">
+        <f>C12*C15</f>
+        <v>-3.6433199999999999E-2</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="32"/>
+      <c r="B24" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="35">
+        <f>C16*C12</f>
+        <v>-3.6433199999999999E-2</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="10"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A20:A24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="216">
   <si>
     <t>level_row</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>Reduction in Phosphorus fertilizer weighted</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>#I think we have to increase the value added of the Skilled labors of high rainfall household production ( with multi practices of mulching, trenches, organic composting and shading tree we can have a general increase of 14% in the NPV)</t>
   </si>
 </sst>
 </file>
@@ -895,7 +901,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -903,14 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1619,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1795,10 +1801,10 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -2280,11 +2286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2294,7 +2300,7 @@
     <col min="3" max="3" width="11.3125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5234375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="103.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="186.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.62890625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.1015625" style="1"/>
   </cols>
@@ -2320,7 +2326,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2336,7 +2342,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="14" t="s">
         <v>184</v>
       </c>
@@ -2348,7 +2354,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2370,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="31"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
         <v>188</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
         <v>199</v>
       </c>
@@ -2387,33 +2393,39 @@
         <v>198</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="12" t="s">
         <v>204</v>
       </c>
@@ -2425,7 +2437,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="12" t="s">
         <v>205</v>
       </c>
@@ -2437,7 +2449,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14" t="s">
         <v>186</v>
       </c>
@@ -2451,7 +2463,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="14" t="s">
         <v>211</v>
       </c>
@@ -2463,7 +2475,7 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>189</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2477,7 +2489,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
         <v>200</v>
       </c>
@@ -2487,7 +2499,7 @@
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="15" t="s">
         <v>206</v>
       </c>
@@ -2503,7 +2515,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="15" t="s">
         <v>207</v>
       </c>
@@ -2519,7 +2531,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2536,12 +2548,12 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C18" s="27">
-        <f>C3*C5*C11*C6/1000</f>
+        <f>C3*(C5+C14)*C11*C6/1000</f>
         <v>50.400000000000006</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -2551,7 +2563,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="17" t="s">
         <v>192</v>
       </c>
@@ -2564,7 +2576,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="36" t="s">
         <v>197</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2583,7 +2595,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="16" t="s">
         <v>175</v>
       </c>
@@ -2600,7 +2612,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="32"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="16" t="s">
         <v>196</v>
       </c>
@@ -2614,29 +2626,33 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="32"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="31">
         <f>C12*C15</f>
         <v>-3.6433199999999999E-2</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="32"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="31">
         <f>C16*C12</f>
         <v>-3.6433199999999999E-2</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="F24" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47C335-AB3A-4BF0-B3E0-DCD2193D0BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
+    <workbookView xWindow="10065" yWindow="3480" windowWidth="28800" windowHeight="12855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
   <si>
     <t>level_row</t>
   </si>
@@ -685,12 +686,21 @@
   </si>
   <si>
     <t>#I think we have to increase the value added of the Skilled labors of high rainfall household production ( with multi practices of mulching, trenches, organic composting and shading tree we can have a general increase of 14% in the NPV)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aggregated</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -1234,23 +1244,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1015625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1281,21 +1291,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1304,22 +1314,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1015625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>29.099999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1351,16 +1361,16 @@
         <v>50.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1368,7 +1378,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1381,25 +1391,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1015625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,8 +1430,11 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1442,8 +1457,11 @@
         <f>-main!C22</f>
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1466,8 +1484,11 @@
         <f>main!C23</f>
         <v>-3.6433199999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1490,13 +1511,42 @@
         <f>main!C24</f>
         <v>-3.6433199999999999E-2</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 B2:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 B2:B5 C5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1505,17 +1555,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C4 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E4 C2</xm:sqref>
+          <xm:sqref>E3:E5 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1524,24 +1574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1015625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1578,24 +1628,24 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1603,13 +1653,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1622,21 +1672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.89453125" customWidth="1"/>
-    <col min="3" max="3" width="47.1015625" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1698,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1681,7 +1731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1742,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1753,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1725,7 +1775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1786,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1780,7 +1830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1856,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1839,7 +1889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1911,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +1922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1883,7 +1933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1894,7 +1944,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +1955,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +1966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1927,7 +1977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1988,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1949,7 +1999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +2010,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +2021,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +2032,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1993,7 +2043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2004,7 +2054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2015,7 +2065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +2076,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2037,7 +2087,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2048,7 +2098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2056,7 +2106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2064,7 +2114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2072,7 +2122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2080,7 +2130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2104,7 +2154,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2162,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2128,7 +2178,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2186,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2144,7 +2194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2152,7 +2202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2160,7 +2210,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2168,7 +2218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2176,7 +2226,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2192,87 +2242,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2283,29 +2333,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="186.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.62890625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
@@ -2325,7 +2375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>185</v>
       </c>
@@ -2341,7 +2391,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="14" t="s">
         <v>184</v>
@@ -2353,7 +2403,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
         <v>187</v>
@@ -2369,7 +2419,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
         <v>188</v>
@@ -2381,7 +2431,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
         <v>199</v>
@@ -2398,7 +2448,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
         <v>193</v>
@@ -2410,7 +2460,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="12" t="s">
         <v>194</v>
@@ -2424,7 +2474,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="12" t="s">
         <v>204</v>
@@ -2436,7 +2486,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="12" t="s">
         <v>205</v>
@@ -2448,7 +2498,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="14" t="s">
         <v>186</v>
@@ -2462,7 +2512,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="14" t="s">
         <v>211</v>
@@ -2474,7 +2524,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>189</v>
       </c>
@@ -2488,7 +2538,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
         <v>200</v>
@@ -2498,7 +2548,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="15" t="s">
         <v>206</v>
@@ -2514,7 +2564,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="15" t="s">
         <v>207</v>
@@ -2530,7 +2580,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>180</v>
       </c>
@@ -2547,7 +2597,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="17" t="s">
         <v>191</v>
@@ -2562,7 +2612,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="17" t="s">
         <v>192</v>
@@ -2575,7 +2625,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>197</v>
       </c>
@@ -2594,7 +2644,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="16" t="s">
         <v>175</v>
@@ -2611,7 +2661,7 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="16" t="s">
         <v>196</v>
@@ -2625,7 +2675,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="16" t="s">
         <v>212</v>
@@ -2640,7 +2690,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="16" t="s">
         <v>213</v>
@@ -2655,11 +2705,11 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
     </row>
   </sheetData>
@@ -2670,7 +2720,7 @@
     <mergeCell ref="A20:A24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47C335-AB3A-4BF0-B3E0-DCD2193D0BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="3480" windowWidth="28800" windowHeight="12855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10068" yWindow="3480" windowWidth="28800" windowHeight="12858" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="253">
   <si>
     <t>level_row</t>
   </si>
@@ -562,12 +561,6 @@
     <t>Percentage of the smallholders to be covered</t>
   </si>
   <si>
-    <t>Education Investment</t>
-  </si>
-  <si>
-    <t>Equipment Investment</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -604,21 +597,9 @@
     <t>Required investment per smallholder</t>
   </si>
   <si>
-    <t>Number of coffee plants per smallholder</t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
-    <t>Total required investment</t>
-  </si>
-  <si>
-    <t>total required investment for forestry</t>
-  </si>
-  <si>
-    <t>Forestry to total ratio</t>
-  </si>
-  <si>
     <t>Additional income due to by products (fruits)</t>
   </si>
   <si>
@@ -628,12 +609,6 @@
     <t>Optimum shading level</t>
   </si>
   <si>
-    <t>Increase in productivity based on optimum shading level</t>
-  </si>
-  <si>
-    <t>Modeled</t>
-  </si>
-  <si>
     <t>kSh</t>
   </si>
   <si>
@@ -695,17 +670,143 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Labor -  High Rainfall</t>
+  </si>
+  <si>
+    <t>Agreggated</t>
+  </si>
+  <si>
+    <t>Capital - Land</t>
+  </si>
+  <si>
+    <t>Capital - Others</t>
+  </si>
+  <si>
+    <t>fertilizers</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>other primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>hectare by smallholders</t>
+  </si>
+  <si>
+    <t>Number of coffee plants per hectare</t>
+  </si>
+  <si>
+    <t>2500-3000</t>
+  </si>
+  <si>
+    <t>International Coffee Organization</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>1.4-1.9</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>0.02-0.06</t>
+  </si>
+  <si>
+    <t>0.1-0.15</t>
+  </si>
+  <si>
+    <t>Total required forestry investment</t>
+  </si>
+  <si>
+    <t>Forestry Investment</t>
+  </si>
+  <si>
+    <t>reduction in productivity based on optimum shading level</t>
+  </si>
+  <si>
+    <t>Shade: A key factor for coffee sustainability and quality</t>
+  </si>
+  <si>
+    <t>Modeled (disaggregated)</t>
+  </si>
+  <si>
+    <t>Modeled (aggregated)</t>
+  </si>
+  <si>
+    <t>Reduction in inputs (weighted)</t>
+  </si>
+  <si>
+    <t>Reduction in capital (weighted)</t>
+  </si>
+  <si>
+    <t>Reduction in labor (weighted)</t>
+  </si>
+  <si>
+    <t>Effects of shade and input management on economic performance of small-scale Peruvian coffee systems</t>
+  </si>
+  <si>
+    <t>Commodities (Aggreggated)</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>VA (Aggregated)</t>
+  </si>
+  <si>
+    <t>Labor - Nairobi</t>
+  </si>
+  <si>
+    <t>Labor - Mombasa</t>
+  </si>
+  <si>
+    <t>Labor - Rest of Kenya</t>
+  </si>
+  <si>
+    <t>Labor - Rest of World</t>
+  </si>
+  <si>
+    <t>Capital - Livestock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +887,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +938,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -846,7 +960,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -869,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -883,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,6 +1027,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +1052,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,23 +1373,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1291,21 +1420,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1314,22 +1443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="7.05078125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1337,52 +1466,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5">
-        <f>main!C20</f>
-        <v>29.099999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5">
-        <f>main!C21</f>
-        <v>50.400000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>main!C23</f>
+        <v>1388.2268400000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1391,27 +1508,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.15625" style="1"/>
+    <col min="8" max="8" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1431,11 +1548,11 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1454,22 +1571,22 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C22</f>
-        <v>-0.13</v>
+        <f>-main!C20</f>
+        <v>0.2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1481,22 +1598,22 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <f>main!C23</f>
-        <v>-3.6433199999999999E-2</v>
+        <f>main!C25</f>
+        <v>-3.3913467694979278E-2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>65</v>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1508,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="G4" s="5">
-        <f>main!C24</f>
-        <v>-3.6433199999999999E-2</v>
+        <f t="shared" ref="G4:G9" si="0">G3</f>
+        <v>-3.3913467694979278E-2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
+      <c r="C5" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1535,18 +1652,127 @@
         <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>-3.3913467694979278E-2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3913467694979278E-2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3913467694979278E-2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3913467694979278E-2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3913467694979278E-2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 B2:B5 C5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9 B2:B9">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1554,18 +1780,24 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C4 E2</xm:sqref>
+          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E5 C2</xm:sqref>
+          <xm:sqref>E3:E9 C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Indeces!$D$2:$D$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1574,24 +1806,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1607,13 +1839,16 @@
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1625,45 +1860,92 @@
         <v>7</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>main!C26</f>
+        <v>-1.3565387077991712E-2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <f>main!C27</f>
+        <v>-4.3409238649573479E-3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F2</f>
+        <v>-1.3565387077991712E-2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Indeces!$C$2:$C$37</xm:f>
+            <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1672,21 +1954,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.83984375" customWidth="1"/>
+    <col min="3" max="3" width="47.15625" customWidth="1"/>
+    <col min="4" max="4" width="22.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1696,9 +1980,14 @@
       <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1708,8 +1997,14 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1719,8 +2014,14 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1730,8 +2031,14 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +2048,14 @@
       <c r="C5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1752,8 +2065,14 @@
       <c r="C6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1763,8 +2082,14 @@
       <c r="C7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1774,8 +2099,14 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1785,8 +2116,14 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1796,8 +2133,11 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +2147,11 @@
       <c r="C11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1818,8 +2161,11 @@
       <c r="C12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1829,8 +2175,11 @@
       <c r="C13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1841,7 +2190,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1851,12 +2200,12 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1867,7 +2216,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +2227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +2238,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1900,7 +2249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +2260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1922,7 +2271,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +2282,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +2293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +2304,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1966,7 +2315,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +2326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1988,7 +2337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2010,7 +2359,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2021,7 +2370,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2032,7 +2381,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2043,7 +2392,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2054,7 +2403,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +2414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2076,7 +2425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2087,7 +2436,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2098,7 +2447,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2106,7 +2455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2114,7 +2463,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2138,7 +2487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2146,7 +2495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2154,7 +2503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2170,7 +2519,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2527,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2186,7 +2535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2194,7 +2543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2202,7 +2551,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2218,7 +2567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2226,7 +2575,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2234,7 +2583,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2242,87 +2591,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2333,394 +2682,493 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="41"/>
+      <c r="B3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41"/>
+      <c r="B4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="41"/>
+      <c r="B5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="22">
+        <v>115570</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41"/>
+      <c r="B6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="41"/>
+      <c r="B7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41"/>
+      <c r="B8" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41"/>
+      <c r="B9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41"/>
+      <c r="B10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="41"/>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="41"/>
+      <c r="B12" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="23">
+        <v>800000</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="41"/>
+      <c r="B13" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="23">
+        <v>8.3479305095333606E-2</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="40"/>
+      <c r="B15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="21">
+        <f>0.1*C7</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="40"/>
+      <c r="B16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="20">
+        <f>1-C10</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="40"/>
+      <c r="B17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="20">
+        <f>1-C11</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="B18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="25">
+        <f>C5*C6*C3*(C7+C15)/1000</f>
+        <v>2135.7336000000005</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="26">
+        <f>C18</f>
+        <v>2135.7336000000005</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="42"/>
+      <c r="B20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="24">
+        <v>-0.2</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="24">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="12" t="s">
+      <c r="G20" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="42"/>
+      <c r="B21" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="29">
+        <f>C13*C16</f>
+        <v>-3.3391722038133433E-2</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="42"/>
+      <c r="B22" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="29">
+        <f>C17*C13</f>
+        <v>-3.3391722038133433E-2</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="34">
+        <f>C18*C14</f>
+        <v>1388.2268400000003</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="25">
-        <v>300000</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="25">
-        <v>9.1082999999999997E-2</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="22">
-        <v>-0.4</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="22">
-        <v>-0.4</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="27">
-        <f>C11*C4/1000</f>
-        <v>79.5</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="27">
-        <f>C3*(C5+C14)*C11*C6/1000</f>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="27">
-        <f>C18/C17</f>
-        <v>0.63396226415094348</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="28">
-        <f>(1-C19)*C17</f>
-        <v>29.099999999999994</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="28">
-        <f>C19*C17</f>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0.13</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="31">
-        <f>C12*C15</f>
-        <v>-3.6433199999999999E-2</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="31">
-        <f>C16*C12</f>
-        <v>-3.6433199999999999E-2</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="43"/>
+      <c r="B24" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="35">
+        <f>-0.2*C14</f>
+        <v>-0.13</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43"/>
+      <c r="B25" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="36">
+        <f>-0.625*C13*C14</f>
+        <v>-3.3913467694979278E-2</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="43"/>
+      <c r="B26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="36">
+        <f>-0.25*C13*C14</f>
+        <v>-1.3565387077991712E-2</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="37">
+        <f>-0.08*C13*C14</f>
+        <v>-4.3409238649573479E-3</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -726,9 +726,6 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>0.02-0.06</t>
-  </si>
-  <si>
     <t>0.1-0.15</t>
   </si>
   <si>
@@ -796,6 +793,9 @@
   </si>
   <si>
     <t>Capital - Livestock</t>
+  </si>
+  <si>
+    <t>0.015-0.04</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C2" s="5">
         <f>main!C23</f>
-        <v>1388.2268400000003</v>
+        <v>520.5850650000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1981,10 +1981,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2001,7 +2001,7 @@
         <v>216</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2018,7 +2018,7 @@
         <v>218</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2052,7 +2052,7 @@
         <v>219</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2066,10 +2066,10 @@
         <v>141</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2083,7 +2083,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>213</v>
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2148,7 +2148,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2162,7 +2162,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2176,7 +2176,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
@@ -2751,11 +2751,11 @@
         <v>182</v>
       </c>
       <c r="C3" s="22">
-        <v>0.04</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
@@ -2987,11 +2987,11 @@
         <v>178</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="25">
         <f>C5*C6*C3*(C7+C15)/1000</f>
-        <v>2135.7336000000005</v>
+        <v>800.90010000000007</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>193</v>
@@ -3002,14 +3002,14 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="26">
         <f>C18</f>
-        <v>2135.7336000000005</v>
+        <v>800.90010000000007</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>193</v>
@@ -3023,7 +3023,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="42"/>
       <c r="B20" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="24">
         <v>-0.2</v>
@@ -3034,7 +3034,7 @@
         <v>202</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3071,14 +3071,14 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="34">
         <f>C18*C14</f>
-        <v>1388.2268400000003</v>
+        <v>520.5850650000001</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>193</v>
@@ -3092,7 +3092,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="43"/>
       <c r="B24" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="35">
         <f>-0.2*C14</f>
@@ -3104,13 +3104,13 @@
         <v>202</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="43"/>
       <c r="B25" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="36">
         <f>-0.625*C13*C14</f>
@@ -3122,13 +3122,13 @@
         <v>202</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="43"/>
       <c r="B26" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="36">
         <f>-0.25*C13*C14</f>
@@ -3140,12 +3140,12 @@
         <v>136</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="37">
         <f>-0.08*C13*C14</f>
@@ -3157,7 +3157,7 @@
         <v>136</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/kenya_sut/Database/Shock_shading.xlsx
+++ b/kenya_sut/Database/Shock_shading.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="260">
   <si>
     <t>level_row</t>
   </si>
@@ -603,9 +603,6 @@
     <t>Additional income due to by products (fruits)</t>
   </si>
   <si>
-    <t>Additional income due to firewood and timber (wood &amp; paper)</t>
-  </si>
-  <si>
     <t>Optimum shading level</t>
   </si>
   <si>
@@ -660,9 +657,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>#I think we have to increase the value added of the Skilled labors of high rainfall household production ( with multi practices of mulching, trenches, organic composting and shading tree we can have a general increase of 14% in the NPV)</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -795,7 +789,34 @@
     <t>Capital - Livestock</t>
   </si>
   <si>
-    <t>0.015-0.04</t>
+    <t>0.02-0.04</t>
+  </si>
+  <si>
+    <t>Price of Banana</t>
+  </si>
+  <si>
+    <t>Banana yield</t>
+  </si>
+  <si>
+    <t>Reduction in use of Fruits HR (HP)</t>
+  </si>
+  <si>
+    <t>Initial use of fruit of HR (HP)</t>
+  </si>
+  <si>
+    <t>20%-40%</t>
+  </si>
+  <si>
+    <t>kg/plant</t>
+  </si>
+  <si>
+    <t>Sh/kg</t>
+  </si>
+  <si>
+    <t>15-40</t>
+  </si>
+  <si>
+    <t>Banana-coffee system cropping guide</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1468,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1474,12 +1495,14 @@
         <v>51</v>
       </c>
       <c r="C2" s="5">
-        <f>main!C23</f>
-        <v>520.5850650000001</v>
+        <f>main!C25</f>
+        <v>1281.4401600000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
+      <c r="B3"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
@@ -1499,7 +1522,7 @@
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1509,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1548,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1571,11 +1594,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C20</f>
-        <v>0.2</v>
+        <f>-main!C26</f>
+        <v>0.24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1598,11 +1621,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <f>main!C25</f>
-        <v>-3.3913467694979278E-2</v>
+        <f>main!C27</f>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1613,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1626,10 +1649,10 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G9" si="0">G3</f>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1640,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -1653,10 +1676,10 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1667,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -1680,10 +1703,10 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1694,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -1707,10 +1730,10 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1721,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -1734,10 +1757,10 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1748,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -1761,18 +1784,45 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3913467694979278E-2</v>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <f>main!C30</f>
+        <v>-8.3929798270893377E-2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9 B2:B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10 D2:D10">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1785,13 +1835,13 @@
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2 C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E9 C2</xm:sqref>
+          <xm:sqref>C2 E3:E10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1840,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1848,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1860,11 +1910,11 @@
         <v>7</v>
       </c>
       <c r="F2" s="2">
-        <f>main!C26</f>
-        <v>-1.3565387077991712E-2</v>
+        <f>main!C28</f>
+        <v>-1.6695861019066723E-2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1872,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1884,11 +1934,11 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <f>main!C27</f>
-        <v>-4.3409238649573479E-3</v>
+        <f>main!C29</f>
+        <v>-5.3426755261013516E-3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1896,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -1909,10 +1959,10 @@
       </c>
       <c r="F4" s="2">
         <f>F2</f>
-        <v>-1.3565387077991712E-2</v>
+        <v>-1.6695861019066723E-2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1957,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1981,10 +2031,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1998,10 +2048,10 @@
         <v>137</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2015,10 +2065,10 @@
         <v>138</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2032,10 +2082,10 @@
         <v>139</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2049,10 +2099,10 @@
         <v>140</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2066,10 +2116,10 @@
         <v>141</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2083,10 +2133,10 @@
         <v>142</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2100,10 +2150,10 @@
         <v>143</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2117,10 +2167,10 @@
         <v>144</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2134,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2148,7 +2198,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2162,7 +2212,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2176,7 +2226,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2683,13 +2733,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2719,7 +2769,7 @@
         <v>175</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>179</v>
@@ -2733,7 +2783,7 @@
         <v>183</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="22">
         <v>0.5</v>
@@ -2742,7 +2792,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2751,11 +2801,11 @@
         <v>182</v>
       </c>
       <c r="C3" s="22">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -2769,7 +2819,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2780,31 +2830,31 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="22">
         <v>115570</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="22">
         <v>3000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2812,360 +2862,424 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="41"/>
       <c r="B7" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="41"/>
       <c r="B8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>252</v>
+      </c>
+      <c r="C8" s="22">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>207</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C9" s="22">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41"/>
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C10" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="12"/>
+        <f>C9*C8*C6*C5*C3/1000000</f>
+        <v>1092.1365000000001</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="41"/>
       <c r="B11" s="11" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C11" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <v>10410</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="41"/>
-      <c r="B12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="23">
-        <v>800000</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>181</v>
-      </c>
+      <c r="B12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="41"/>
-      <c r="B13" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="B13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41"/>
+      <c r="B14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="23">
+        <v>800000</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="41"/>
+      <c r="B15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="23">
         <v>8.3479305095333606E-2</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="40" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40"/>
-      <c r="B15" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="21">
-        <f>0.1*C7</f>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="40"/>
-      <c r="B16" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="C16" s="20">
-        <f>1-C10</f>
-        <v>-0.39999999999999991</v>
+        <v>0.8</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="40"/>
       <c r="B17" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="21">
+        <f>0.1*C7</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="40"/>
+      <c r="B18" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="20">
+        <f>1-C12</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="20">
-        <f>1-C11</f>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="40"/>
+      <c r="B19" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="20">
+        <f>1-C13</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="25">
-        <f>C5*C6*C3*(C7+C15)/1000</f>
-        <v>800.90010000000007</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="26">
-        <f>C18</f>
-        <v>800.90010000000007</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="42"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="25">
+        <f>C5*C6*C3*(C7+C17)/1000</f>
+        <v>1601.8002000000001</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="24">
-        <v>-0.2</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="42"/>
       <c r="B21" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="29">
-        <f>C13*C16</f>
-        <v>-3.3391722038133433E-2</v>
-      </c>
-      <c r="D21" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="C21" s="26">
+        <f>C20</f>
+        <v>1601.8002000000001</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="42"/>
       <c r="B22" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="29">
-        <f>C17*C13</f>
+        <v>230</v>
+      </c>
+      <c r="C22" s="24">
+        <v>-0.3</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="42"/>
+      <c r="B23" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="29">
+        <f>C15*C18</f>
         <v>-3.3391722038133433E-2</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="34">
-        <f>C18*C14</f>
-        <v>520.5850650000001</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="43"/>
-      <c r="B24" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="35">
-        <f>-0.2*C14</f>
-        <v>-0.13</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="29">
+        <f>C19*C15</f>
+        <v>-3.3391722038133433E-2</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="43"/>
       <c r="B25" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="36">
-        <f>-0.625*C13*C14</f>
-        <v>-3.3913467694979278E-2</v>
-      </c>
-      <c r="D25" s="33"/>
+        <v>229</v>
+      </c>
+      <c r="C25" s="34">
+        <f>C20*C16</f>
+        <v>1281.4401600000001</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>192</v>
+      </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>239</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="43"/>
       <c r="B26" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="36">
-        <f>-0.25*C13*C14</f>
-        <v>-1.3565387077991712E-2</v>
+        <v>230</v>
+      </c>
+      <c r="C26" s="35">
+        <f>C22*C16</f>
+        <v>-0.24</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="43"/>
       <c r="B27" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="37">
-        <f>-0.08*C13*C14</f>
-        <v>-4.3409238649573479E-3</v>
+        <v>234</v>
+      </c>
+      <c r="C27" s="36">
+        <f>-0.625*C15*C16</f>
+        <v>-4.173965254766681E-2</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="43"/>
+      <c r="B28" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="36">
+        <f>-0.25*C15*C16</f>
+        <v>-1.6695861019066723E-2</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>239</v>
+      <c r="G28" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="37">
+        <f>-0.08*C15*C16</f>
+        <v>-5.3426755261013516E-3</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="37">
+        <f>-C10*C16/C11</f>
+        <v>-8.3929798270893377E-2</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1"/>
